--- a/Results.xlsx
+++ b/Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kagan\Documents\GitHub\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kagan\Documents\GitHub\Main-Monte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE09E7F-D264-43E4-A77F-4B6D17C213E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89313954-67A7-4074-B2DA-FA008EFEDBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5715" yWindow="0" windowWidth="23190" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Scaled</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>C:\Users\kagan\Documents\GitHub\Main-Monte</t>
+  </si>
+  <si>
+    <t>12-29-2025, wrong need to fix</t>
   </si>
 </sst>
 </file>
@@ -80,7 +83,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,13 +91,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -109,9 +124,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -660,10 +676,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D43E08B-2A75-4E08-B291-D2857906436C}">
-  <dimension ref="D4:E9"/>
+  <dimension ref="D3:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,6 +688,12 @@
     <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
     <row r="4" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>2</v>
@@ -729,7 +751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843DC96C-7D3E-4022-8B4C-F28D78EC1217}">
   <dimension ref="B4:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
